--- a/Compass.Wpf/bin/Release/net6.0-windows/publish/PackingList.xlsx
+++ b/Compass.Wpf/bin/Release/net6.0-windows/publish/PackingList.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232A3CB5-4720-4D5F-8ADC-72F367224EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FD9163-CD7E-4232-BE51-CCC7F8DBFB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CeilingPackingList" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">CeilingPackingList!$A:$J</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">CeilingPackingList!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,41 +70,41 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>部件类型
+    <t>项目装箱清单(Project Packing List)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hood</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packing Type:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivery Type:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print Date:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print By:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型
 Type</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>部件描述
+    <t>描述
 Description</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目装箱清单(Project Packing List)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product:</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hood</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Packing Type:</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delivery Type:</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Print Date:</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Print By:</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -232,9 +233,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -245,10 +243,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -536,15 +534,15 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
@@ -556,70 +554,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>45091</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -638,10 +636,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>1</v>
@@ -673,8 +671,8 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
   </headerFooter>

--- a/Compass.Wpf/bin/Release/net6.0-windows/publish/PackingList.xlsx
+++ b/Compass.Wpf/bin/Release/net6.0-windows/publish/PackingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FD9163-CD7E-4232-BE51-CCC7F8DBFB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A63BF42-D999-4D24-8408-06CCBEA17F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CeilingPackingList" sheetId="1" r:id="rId1"/>
@@ -534,8 +534,8 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Compass.Wpf/bin/Release/net6.0-windows/publish/PackingList.xlsx
+++ b/Compass.Wpf/bin/Release/net6.0-windows/publish/PackingList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A63BF42-D999-4D24-8408-06CCBEA17F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0695A72-7D67-471E-BF33-DB3BE97A7221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,6 @@
     <t>Project Name:</t>
   </si>
   <si>
-    <t>数量
-QTY.</t>
-  </si>
-  <si>
     <t>单位
 Unit</t>
   </si>
@@ -105,6 +101,11 @@
   <si>
     <t>描述
 Description</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量
+Qty.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -217,21 +218,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -239,14 +242,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -535,132 +535,132 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="5" customWidth="1"/>
     <col min="11" max="16384" width="18.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="9">
         <v>45091</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="8"/>
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
